--- a/users/root/uploads/test.xlsx
+++ b/users/root/uploads/test.xlsx
@@ -1,628 +1,609 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="ds1_zimen_2017" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ds1_zimen_2017" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="191">
-  <si>
-    <t xml:space="preserve">Факултетен номер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Име</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Курс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Група</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Задачи 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Теория 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Задачи 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Теория 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ростислав Йорданов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Даниел Исов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Камен Кънчев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Радослав Филипов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нено Петракиев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван Недялков Чавдаров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цветин Красимиров Панов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Курс 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Група 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Борислав Жеков Георгиев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван Стоянов Шишев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Група 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мартин Валериев Веселинов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Група 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александър Бисеров Владимиров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Владимир Николаев Кралев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Илияна Николаева Иванова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александър Димитров Драганов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Габриела Петкова Карабойчева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Група 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Денис Бориславов Ганев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стефан Стефанов Николов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Християн Красимиров Лазаров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван Тодоров Костов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Група 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Невена Георгиева Мандева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Група 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Димо Апостолов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виктория Костадинова Добрева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вероника Свиленова Богданова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шериф Кунч</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стефан Николов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юлиян Бизеранов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Момчил Диянов Игнатов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Даниел Светославов Пенчев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пламена Иванова Тодорова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Косьо Николов Николов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гьокан Неждетов Сюлейманов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марио Каменов Илиев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тони Илиев Стоянов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александър Стефанов Стефанов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Даниел Димитров Димитров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юмит Гюнал Яйя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пламена Веселинова Петкова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ради Георгиев Сергеев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Филип Радославов Грозданов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виктория Пепиева Георгиева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цветомира Илиянова Гяурова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мартина Бориславова Георгиева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ина Евгениева Георгиева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван Христов Христов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ивайло Георгиев Атовски</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Таня Стефанова Христова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ивайло Георгиев Иванов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Димитър Иванов Лазаров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван Бойков Лучев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александър Александров Игнатов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Илкнур Бахтияр Мустафа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мария Христова Варджиева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Асен Красимиров Владимиров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жечко Стефанов Попов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Йоанна Емилова Петкова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наталия Димитрова Янчева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Красимира Стилиянова Милкова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Любослав Валентинов Карев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виктор Красимиров Костов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Росица Бойкова Христова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Петър Илиев Янакиев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Силвия Василева Василева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Николай Дмитриев Захаров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Росен Димитров Попов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виктор Стефанов Христов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антони Стойчев Стоев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александър Александров Цветанов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Давид Иванов Бошев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ашкън Ахмед Мустафа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Олег Антонов Александров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Васил Иванов Николов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александра Георгиева Празова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ралица Николова Димитрова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Венияна Цветелинова Цолова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мерхат Идиризов Панджаров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Диана Василева Георгиева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мария Димитрова Байракова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мартин Радославов Димитров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Димитър Димитров Величков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Димитър Иванов Райчев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван Ивов Чучулски</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Икбал Рамаданов Расимов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бистра Иванова Чиликова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кязим Селяйдинов Кязимов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дейвид Димитров Метанов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Божидара Петрова Пачилова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Андрей Ганчев Андреев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Георги Стойков Стойков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мартин Атанасов Дачев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Парашкев Атанасов Катерски</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бетина Мирославова Борисова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стефан Алоиз Пелке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Радина Недялкова Динева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ева Венелинова Николова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Денислав Свиленов Недев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Красимира Константинова Константинова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мартин Людмилов Павлов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Калоян-Кристоф  Янков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Димитър Стефанов Найденов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Йоанна Станимирова Евгениева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Явор Валентинов Петков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Белла Николаева Събева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Георги Атанасов Атанасов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Борис Евгениев Петров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">София Борисова Пенева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спасимира Стефанова Джунакова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Десислава Петрова Кръстева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Владимир Веселинов Селдаров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ваня Стефанова Петрова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Елена Георгиева Тупарова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мартин Любомиров Илиев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ивайло Димитров Георгиев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Никола Мирославов Петров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лили Цветанова Стефанова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Биляна Емилова Йорданова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антонина Димитрова Кьосева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Серафим Димитров Бабулков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александър Иванов Савчев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Елизар Емилиянов Емануилов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виктория Георгиева Бамбалдокова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Арина Цонева Русева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Траяна Недкова Неделчева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Радост Пламенова Дрънгова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дениза Федева Топалова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Велин Тодоров Клисуров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Васил Владимиров Жухов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Катрин Николаева Стоименова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Силвиян Светославов Мартинов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Емил Константинов Живков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Захари Ивайлов Звездомиров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кристиян Николаев Гергов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Димитър Атанасов Сейков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вилиян Венциславов Иванов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Васил Николов Папукчиев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Васил Георгиев Василев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антон Васков Колов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антоан Николаев Димитров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Любомир Красимиров Ружински</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Теодора Валериева Иванова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Никола Светославов Светославов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Георги Димитров Биков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Петя Веселинова Петрова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александра Ивилинова Йовкова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кристина Венелинова Христова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виктор Стоянов Мирев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александра Иванова Иванова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Калоян Валентинов Кралев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виктория Миленова Добрева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Любомир Красимиров Мицев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Христиана Жекова Христова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Христо Десиславов Димитров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виржиния Иванова Вълчева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кристина Стефанова Асенова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стоян Петров Янев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Георги Светославов Радев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Десислава Георгиева Георгиева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Калоян Иванов Петров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Роман Алексеевич Емелянов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Димитър  Яни Гроздани</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ален Мемиши</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дмитро Иванович Богдев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Богдан Юрийович Карабаджак</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наталия Стоянова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Йосиф Калчо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Васил Сърбаков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марк  Кружков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марио Илич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Михаил Лучков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ивана Йовица Спасовска</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Павло Георгийович Карабаджак</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Олександр Андреийович Телпис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Енес Самарджия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Денис Азизович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дамир Рами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Евгений Виталийович Ромалийский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Влад Викторович Павлов</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+  <si>
+    <t>Факултетен номер</t>
+  </si>
+  <si>
+    <t>Име</t>
+  </si>
+  <si>
+    <t>Курс</t>
+  </si>
+  <si>
+    <t>Група</t>
+  </si>
+  <si>
+    <t>Задачи 1</t>
+  </si>
+  <si>
+    <t>Теория 1</t>
+  </si>
+  <si>
+    <t>Задачи 2</t>
+  </si>
+  <si>
+    <t>Теория 2</t>
+  </si>
+  <si>
+    <t>Ростислав Йорданов</t>
+  </si>
+  <si>
+    <t>Даниел Исов</t>
+  </si>
+  <si>
+    <t>Камен Кънчев</t>
+  </si>
+  <si>
+    <t>Радослав Филипов</t>
+  </si>
+  <si>
+    <t>Нено Петракиев</t>
+  </si>
+  <si>
+    <t>Иван Недялков Чавдаров</t>
+  </si>
+  <si>
+    <t>Цветин Красимиров Панов</t>
+  </si>
+  <si>
+    <t>Курс 1</t>
+  </si>
+  <si>
+    <t>Група 5</t>
+  </si>
+  <si>
+    <t>Борислав Жеков Георгиев</t>
+  </si>
+  <si>
+    <t>Иван Стоянов Шишев</t>
+  </si>
+  <si>
+    <t>Група 6</t>
+  </si>
+  <si>
+    <t>Мартин Валериев Веселинов</t>
+  </si>
+  <si>
+    <t>Група 3</t>
+  </si>
+  <si>
+    <t>Александър Бисеров Владимиров</t>
+  </si>
+  <si>
+    <t>Владимир Николаев Кралев</t>
+  </si>
+  <si>
+    <t>Илияна Николаева Иванова</t>
+  </si>
+  <si>
+    <t>Александър Димитров Драганов</t>
+  </si>
+  <si>
+    <t>Габриела Петкова Карабойчева</t>
+  </si>
+  <si>
+    <t>Група 2</t>
+  </si>
+  <si>
+    <t>Денис Бориславов Ганев</t>
+  </si>
+  <si>
+    <t>Стефан Стефанов Николов</t>
+  </si>
+  <si>
+    <t>Християн Красимиров Лазаров</t>
+  </si>
+  <si>
+    <t>Иван Тодоров Костов</t>
+  </si>
+  <si>
+    <t>Група 4</t>
+  </si>
+  <si>
+    <t>Невена Георгиева Мандева</t>
+  </si>
+  <si>
+    <t>Група 1</t>
+  </si>
+  <si>
+    <t>Димо Апостолов</t>
+  </si>
+  <si>
+    <t>Виктория Костадинова Добрева</t>
+  </si>
+  <si>
+    <t>Вероника Свиленова Богданова</t>
+  </si>
+  <si>
+    <t>Шериф Кунч</t>
+  </si>
+  <si>
+    <t>Стефан Николов</t>
+  </si>
+  <si>
+    <t>Юлиян Бизеранов</t>
+  </si>
+  <si>
+    <t>Момчил Диянов Игнатов</t>
+  </si>
+  <si>
+    <t>Даниел Светославов Пенчев</t>
+  </si>
+  <si>
+    <t>Пламена Иванова Тодорова</t>
+  </si>
+  <si>
+    <t>Косьо Николов Николов</t>
+  </si>
+  <si>
+    <t>Гьокан Неждетов Сюлейманов</t>
+  </si>
+  <si>
+    <t>Марио Каменов Илиев</t>
+  </si>
+  <si>
+    <t>Тони Илиев Стоянов</t>
+  </si>
+  <si>
+    <t>Александър Стефанов Стефанов</t>
+  </si>
+  <si>
+    <t>Даниел Димитров Димитров</t>
+  </si>
+  <si>
+    <t>Юмит Гюнал Яйя</t>
+  </si>
+  <si>
+    <t>Пламена Веселинова Петкова</t>
+  </si>
+  <si>
+    <t>Ради Георгиев Сергеев</t>
+  </si>
+  <si>
+    <t>Филип Радославов Грозданов</t>
+  </si>
+  <si>
+    <t>Виктория Пепиева Георгиева</t>
+  </si>
+  <si>
+    <t>Цветомира Илиянова Гяурова</t>
+  </si>
+  <si>
+    <t>Мартина Бориславова Георгиева</t>
+  </si>
+  <si>
+    <t>Ина Евгениева Георгиева</t>
+  </si>
+  <si>
+    <t>Иван Христов Христов</t>
+  </si>
+  <si>
+    <t>Ивайло Георгиев Атовски</t>
+  </si>
+  <si>
+    <t>Таня Стефанова Христова</t>
+  </si>
+  <si>
+    <t>Ивайло Георгиев Иванов</t>
+  </si>
+  <si>
+    <t>Димитър Иванов Лазаров</t>
+  </si>
+  <si>
+    <t>Иван Бойков Лучев</t>
+  </si>
+  <si>
+    <t>Александър Александров Игнатов</t>
+  </si>
+  <si>
+    <t>Илкнур Бахтияр Мустафа</t>
+  </si>
+  <si>
+    <t>Мария Христова Варджиева</t>
+  </si>
+  <si>
+    <t>Асен Красимиров Владимиров</t>
+  </si>
+  <si>
+    <t>Жечко Стефанов Попов</t>
+  </si>
+  <si>
+    <t>Йоанна Емилова Петкова</t>
+  </si>
+  <si>
+    <t>Наталия Димитрова Янчева</t>
+  </si>
+  <si>
+    <t>Красимира Стилиянова Милкова</t>
+  </si>
+  <si>
+    <t>Любослав Валентинов Карев</t>
+  </si>
+  <si>
+    <t>Виктор Красимиров Костов</t>
+  </si>
+  <si>
+    <t>Росица Бойкова Христова</t>
+  </si>
+  <si>
+    <t>Петър Илиев Янакиев</t>
+  </si>
+  <si>
+    <t>Силвия Василева Василева</t>
+  </si>
+  <si>
+    <t>Николай Дмитриев Захаров</t>
+  </si>
+  <si>
+    <t>Росен Димитров Попов</t>
+  </si>
+  <si>
+    <t>Виктор Стефанов Христов</t>
+  </si>
+  <si>
+    <t>Антони Стойчев Стоев</t>
+  </si>
+  <si>
+    <t>Александър Александров Цветанов</t>
+  </si>
+  <si>
+    <t>Давид Иванов Бошев</t>
+  </si>
+  <si>
+    <t>Ашкън Ахмед Мустафа</t>
+  </si>
+  <si>
+    <t>Олег Антонов Александров</t>
+  </si>
+  <si>
+    <t>Васил Иванов Николов</t>
+  </si>
+  <si>
+    <t>Александра Георгиева Празова</t>
+  </si>
+  <si>
+    <t>Ралица Николова Димитрова</t>
+  </si>
+  <si>
+    <t>Венияна Цветелинова Цолова</t>
+  </si>
+  <si>
+    <t>Мерхат Идиризов Панджаров</t>
+  </si>
+  <si>
+    <t>Диана Василева Георгиева</t>
+  </si>
+  <si>
+    <t>Мария Димитрова Байракова</t>
+  </si>
+  <si>
+    <t>Мартин Радославов Димитров</t>
+  </si>
+  <si>
+    <t>Димитър Димитров Величков</t>
+  </si>
+  <si>
+    <t>Димитър Иванов Райчев</t>
+  </si>
+  <si>
+    <t>Иван Ивов Чучулски</t>
+  </si>
+  <si>
+    <t>Икбал Рамаданов Расимов</t>
+  </si>
+  <si>
+    <t>Бистра Иванова Чиликова</t>
+  </si>
+  <si>
+    <t>Кязим Селяйдинов Кязимов</t>
+  </si>
+  <si>
+    <t>Дейвид Димитров Метанов</t>
+  </si>
+  <si>
+    <t>Божидара Петрова Пачилова</t>
+  </si>
+  <si>
+    <t>Андрей Ганчев Андреев</t>
+  </si>
+  <si>
+    <t>Георги Стойков Стойков</t>
+  </si>
+  <si>
+    <t>Мартин Атанасов Дачев</t>
+  </si>
+  <si>
+    <t>Парашкев Атанасов Катерски</t>
+  </si>
+  <si>
+    <t>Бетина Мирославова Борисова</t>
+  </si>
+  <si>
+    <t>Стефан Алоиз Пелке</t>
+  </si>
+  <si>
+    <t>Радина Недялкова Динева</t>
+  </si>
+  <si>
+    <t>Ева Венелинова Николова</t>
+  </si>
+  <si>
+    <t>Денислав Свиленов Недев</t>
+  </si>
+  <si>
+    <t>Красимира Константинова Константинова</t>
+  </si>
+  <si>
+    <t>Мартин Людмилов Павлов</t>
+  </si>
+  <si>
+    <t>Калоян-Кристоф  Янков</t>
+  </si>
+  <si>
+    <t>Димитър Стефанов Найденов</t>
+  </si>
+  <si>
+    <t>Йоанна Станимирова Евгениева</t>
+  </si>
+  <si>
+    <t>Явор Валентинов Петков</t>
+  </si>
+  <si>
+    <t>Белла Николаева Събева</t>
+  </si>
+  <si>
+    <t>Георги Атанасов Атанасов</t>
+  </si>
+  <si>
+    <t>Борис Евгениев Петров</t>
+  </si>
+  <si>
+    <t>София Борисова Пенева</t>
+  </si>
+  <si>
+    <t>Спасимира Стефанова Джунакова</t>
+  </si>
+  <si>
+    <t>Десислава Петрова Кръстева</t>
+  </si>
+  <si>
+    <t>Владимир Веселинов Селдаров</t>
+  </si>
+  <si>
+    <t>Ваня Стефанова Петрова</t>
+  </si>
+  <si>
+    <t>Елена Георгиева Тупарова</t>
+  </si>
+  <si>
+    <t>Мартин Любомиров Илиев</t>
+  </si>
+  <si>
+    <t>Ивайло Димитров Георгиев</t>
+  </si>
+  <si>
+    <t>Никола Мирославов Петров</t>
+  </si>
+  <si>
+    <t>Лили Цветанова Стефанова</t>
+  </si>
+  <si>
+    <t>Биляна Емилова Йорданова</t>
+  </si>
+  <si>
+    <t>Антонина Димитрова Кьосева</t>
+  </si>
+  <si>
+    <t>Серафим Димитров Бабулков</t>
+  </si>
+  <si>
+    <t>Александър Иванов Савчев</t>
+  </si>
+  <si>
+    <t>Елизар Емилиянов Емануилов</t>
+  </si>
+  <si>
+    <t>Виктория Георгиева Бамбалдокова</t>
+  </si>
+  <si>
+    <t>Арина Цонева Русева</t>
+  </si>
+  <si>
+    <t>Траяна Недкова Неделчева</t>
+  </si>
+  <si>
+    <t>Радост Пламенова Дрънгова</t>
+  </si>
+  <si>
+    <t>Дениза Федева Топалова</t>
+  </si>
+  <si>
+    <t>Велин Тодоров Клисуров</t>
+  </si>
+  <si>
+    <t>Васил Владимиров Жухов</t>
+  </si>
+  <si>
+    <t>Катрин Николаева Стоименова</t>
+  </si>
+  <si>
+    <t>Силвиян Светославов Мартинов</t>
+  </si>
+  <si>
+    <t>Емил Константинов Живков</t>
+  </si>
+  <si>
+    <t>Захари Ивайлов Звездомиров</t>
+  </si>
+  <si>
+    <t>Кристиян Николаев Гергов</t>
+  </si>
+  <si>
+    <t>Димитър Атанасов Сейков</t>
+  </si>
+  <si>
+    <t>Вилиян Венциславов Иванов</t>
+  </si>
+  <si>
+    <t>Васил Николов Папукчиев</t>
+  </si>
+  <si>
+    <t>Васил Георгиев Василев</t>
+  </si>
+  <si>
+    <t>Антон Васков Колов</t>
+  </si>
+  <si>
+    <t>Антоан Николаев Димитров</t>
+  </si>
+  <si>
+    <t>Любомир Красимиров Ружински</t>
+  </si>
+  <si>
+    <t>Теодора Валериева Иванова</t>
+  </si>
+  <si>
+    <t>Никола Светославов Светославов</t>
+  </si>
+  <si>
+    <t>Георги Димитров Биков</t>
+  </si>
+  <si>
+    <t>Петя Веселинова Петрова</t>
+  </si>
+  <si>
+    <t>Александра Ивилинова Йовкова</t>
+  </si>
+  <si>
+    <t>Кристина Венелинова Христова</t>
+  </si>
+  <si>
+    <t>Виктор Стоянов Мирев</t>
+  </si>
+  <si>
+    <t>Александра Иванова Иванова</t>
+  </si>
+  <si>
+    <t>Калоян Валентинов Кралев</t>
+  </si>
+  <si>
+    <t>Виктория Миленова Добрева</t>
+  </si>
+  <si>
+    <t>Любомир Красимиров Мицев</t>
+  </si>
+  <si>
+    <t>Христиана Жекова Христова</t>
+  </si>
+  <si>
+    <t>Христо Десиславов Димитров</t>
+  </si>
+  <si>
+    <t>Виржиния Иванова Вълчева</t>
+  </si>
+  <si>
+    <t>Кристина Стефанова Асенова</t>
+  </si>
+  <si>
+    <t>Стоян Петров Янев</t>
+  </si>
+  <si>
+    <t>Георги Светославов Радев</t>
+  </si>
+  <si>
+    <t>Десислава Георгиева Георгиева</t>
+  </si>
+  <si>
+    <t>Калоян Иванов Петров</t>
+  </si>
+  <si>
+    <t>Роман Алексеевич Емелянов</t>
+  </si>
+  <si>
+    <t>Димитър  Яни Гроздани</t>
+  </si>
+  <si>
+    <t>Ален Мемиши</t>
+  </si>
+  <si>
+    <t>Дмитро Иванович Богдев</t>
+  </si>
+  <si>
+    <t>Богдан Юрийович Карабаджак</t>
+  </si>
+  <si>
+    <t>Наталия Стоянова</t>
+  </si>
+  <si>
+    <t>Йосиф Калчо</t>
+  </si>
+  <si>
+    <t>Васил Сърбаков</t>
+  </si>
+  <si>
+    <t>Марк  Кружков</t>
+  </si>
+  <si>
+    <t>Марио Илич</t>
+  </si>
+  <si>
+    <t>Михаил Лучков</t>
+  </si>
+  <si>
+    <t>Ивана Йовица Спасовска</t>
+  </si>
+  <si>
+    <t>Павло Георгийович Карабаджак</t>
+  </si>
+  <si>
+    <t>Олександр Андреийович Телпис</t>
+  </si>
+  <si>
+    <t>Енес Самарджия</t>
+  </si>
+  <si>
+    <t>Денис Азизович</t>
+  </si>
+  <si>
+    <t>Дамир Рами</t>
+  </si>
+  <si>
+    <t>Евгений Виталийович Ромалийский</t>
+  </si>
+  <si>
+    <t>Влад Викторович Павлов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -630,90 +611,348 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="2" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H177" activeCellId="0" sqref="H177"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="200" zoomScaleNormal="200" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="11.5625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.84"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.55"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="11.55"/>
+    <col min="1" max="1" width="16.97" customWidth="true" style="1"/>
+    <col min="2" max="2" width="38.66" customWidth="true" style="1"/>
+    <col min="3" max="3" width="6.98" customWidth="true" style="1"/>
+    <col min="4" max="4" width="7.84" customWidth="true" style="1"/>
+    <col min="5" max="5" width="11.55" customWidth="true" style="1"/>
+    <col min="6" max="6" width="11.55" customWidth="true" style="1"/>
+    <col min="7" max="7" width="11.55" customWidth="true" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" customHeight="1" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,158 +978,160 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>61639</v>
+    <row r="2" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A2" s="1">
+        <v>61639123</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>180</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>4.75</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A3" s="1">
         <v>61876</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>160</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="2">
         <v>3.75</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A4" s="1">
         <v>61899</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>145</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="2">
         <v>4.5</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A5" s="1">
         <v>61912</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>150</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="G5" s="2"/>
+      <c r="H5" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A6" s="1">
         <v>61973</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>4.25</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>130</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="2">
         <v>3.75</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A7" s="1">
         <v>61993</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="1"/>
+      <c r="E7" s="2">
         <v>4.5</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>140</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>4.25</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A8" s="1">
         <v>61994</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -902,21 +1143,21 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>140</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>4.25</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A9" s="1">
         <v>61995</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -928,21 +1169,21 @@
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>180</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A10" s="1">
         <v>62011</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -955,9 +1196,12 @@
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A11" s="1">
         <v>62018</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -969,21 +1213,21 @@
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>3.25</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>50</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>4.5</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A12" s="1">
         <v>62019</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -996,9 +1240,12 @@
         <v>16</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A13" s="1">
         <v>62020</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1010,21 +1257,21 @@
       <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2">
         <v>3.5</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>180</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A14" s="1">
         <v>62025</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1037,9 +1284,12 @@
         <v>21</v>
       </c>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A15" s="1">
         <v>62054</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1052,9 +1302,12 @@
         <v>21</v>
       </c>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A16" s="1">
         <v>62056</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1067,9 +1320,12 @@
         <v>27</v>
       </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A17" s="1">
         <v>62060</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1082,29 +1338,34 @@
         <v>27</v>
       </c>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A18" s="1">
         <v>62064</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="1">
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="G18" s="2"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A19" s="1">
         <v>62077</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1116,21 +1377,21 @@
       <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2">
         <v>3.25</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="1">
         <v>130</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>2</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A20" s="1">
         <v>62093</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1143,9 +1404,12 @@
         <v>32</v>
       </c>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A21" s="1">
         <v>62094</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1158,32 +1422,36 @@
         <v>34</v>
       </c>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A22" s="1">
         <v>62099</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="2">
         <v>3</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="1">
         <v>155</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A23" s="1">
         <v>62103</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1196,9 +1464,12 @@
         <v>27</v>
       </c>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A24" s="1">
         <v>62107</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1211,81 +1482,86 @@
         <v>21</v>
       </c>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A25" s="1">
         <v>62108</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="1">
         <v>2</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2">
         <v>4.25</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="1">
         <v>135</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2">
         <v>4.5</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A26" s="1">
         <v>62109</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="1">
         <v>4</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2">
         <v>3.5</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="1">
         <v>160</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2">
         <v>4.25</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H26" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A27" s="1">
         <v>62111</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="1">
         <v>3</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2">
         <v>2</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="G27" s="2"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A28" s="1">
         <v>62113</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1297,21 +1573,21 @@
       <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2">
         <v>4.25</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="1">
         <v>180</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2">
         <v>2</v>
       </c>
-      <c r="H28" s="1" t="n">
+      <c r="H28" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A29" s="1">
         <v>62114</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1323,21 +1599,21 @@
       <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2">
         <v>6</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" s="1">
         <v>175</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="2">
         <v>3.75</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A30" s="1">
         <v>62115</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1349,21 +1625,21 @@
       <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="2">
         <v>6</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="1">
         <v>160</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2">
         <v>6</v>
       </c>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A31" s="1">
         <v>62116</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1375,21 +1651,21 @@
       <c r="D31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2">
         <v>6</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F31" s="1">
         <v>170</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2">
         <v>6</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A32" s="1">
         <v>62117</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1401,21 +1677,21 @@
       <c r="D32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="2">
         <v>4.25</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="1">
         <v>175</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2">
         <v>2</v>
       </c>
-      <c r="H32" s="1" t="n">
+      <c r="H32" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A33" s="1">
         <v>62118</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1427,21 +1703,21 @@
       <c r="D33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2">
         <v>4.75</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" s="1">
         <v>180</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="2">
         <v>4.5</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A34" s="1">
         <v>62119</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1453,18 +1729,19 @@
       <c r="D34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="2">
         <v>5</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34" s="1">
         <v>145</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A35" s="1">
         <v>62120</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1476,21 +1753,21 @@
       <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2">
         <v>5</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" s="1">
         <v>175</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="2">
         <v>4.5</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="H35" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A36" s="1">
         <v>62121</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1502,21 +1779,21 @@
       <c r="D36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="2">
         <v>5.5</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" s="1">
         <v>180</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="2">
         <v>5.5</v>
       </c>
-      <c r="H36" s="1" t="n">
+      <c r="H36" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A37" s="1">
         <v>62122</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1528,21 +1805,21 @@
       <c r="D37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="2">
         <v>3.5</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="1">
         <v>145</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="2">
         <v>3.5</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="H37" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A38" s="1">
         <v>62123</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1554,21 +1831,21 @@
       <c r="D38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="2">
         <v>4.5</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" s="1">
         <v>160</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="2">
         <v>5.65</v>
       </c>
-      <c r="H38" s="1" t="n">
+      <c r="H38" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A39" s="1">
         <v>62124</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1580,21 +1857,21 @@
       <c r="D39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="2">
         <v>4.5</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F39" s="1">
         <v>180</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="2">
         <v>5.5</v>
       </c>
-      <c r="H39" s="1" t="n">
+      <c r="H39" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A40" s="1">
         <v>62125</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1607,15 +1884,16 @@
         <v>19</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="G40" s="2" t="n">
+      <c r="F40" s="1"/>
+      <c r="G40" s="2">
         <v>5.25</v>
       </c>
-      <c r="H40" s="1" t="n">
+      <c r="H40" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A41" s="1">
         <v>62126</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1627,21 +1905,21 @@
       <c r="D41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="2">
         <v>2</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F41" s="1">
         <v>155</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="2">
         <v>4</v>
       </c>
-      <c r="H41" s="1" t="n">
+      <c r="H41" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A42" s="1">
         <v>62127</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1653,21 +1931,21 @@
       <c r="D42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="2">
         <v>4.5</v>
       </c>
-      <c r="F42" s="1" t="n">
+      <c r="F42" s="1">
         <v>155</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="2">
         <v>2</v>
       </c>
-      <c r="H42" s="1" t="n">
+      <c r="H42" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A43" s="1">
         <v>62128</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1679,21 +1957,21 @@
       <c r="D43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="2">
         <v>3.5</v>
       </c>
-      <c r="F43" s="1" t="n">
+      <c r="F43" s="1">
         <v>155</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="2">
         <v>2</v>
       </c>
-      <c r="H43" s="1" t="n">
+      <c r="H43" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A44" s="1">
         <v>62129</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1705,21 +1983,21 @@
       <c r="D44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="2">
         <v>4</v>
       </c>
-      <c r="F44" s="1" t="n">
+      <c r="F44" s="1">
         <v>160</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="2">
         <v>2</v>
       </c>
-      <c r="H44" s="1" t="n">
+      <c r="H44" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A45" s="1">
         <v>62130</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1731,21 +2009,21 @@
       <c r="D45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="2">
         <v>5</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F45" s="1">
         <v>170</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="2">
         <v>5.5</v>
       </c>
-      <c r="H45" s="1" t="n">
+      <c r="H45" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A46" s="1">
         <v>62131</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1757,21 +2035,21 @@
       <c r="D46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="2">
         <v>4.75</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F46" s="1">
         <v>160</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="2">
         <v>6</v>
       </c>
-      <c r="H46" s="1" t="n">
+      <c r="H46" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A47" s="1">
         <v>62132</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1783,21 +2061,21 @@
       <c r="D47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="2">
         <v>5</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F47" s="1">
         <v>160</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="2">
         <v>5.75</v>
       </c>
-      <c r="H47" s="1" t="n">
+      <c r="H47" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A48" s="1">
         <v>62133</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1809,21 +2087,21 @@
       <c r="D48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="2">
         <v>4.75</v>
       </c>
-      <c r="F48" s="1" t="n">
+      <c r="F48" s="1">
         <v>145</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="2">
         <v>4.5</v>
       </c>
-      <c r="H48" s="1" t="n">
+      <c r="H48" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A49" s="1">
         <v>62134</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1835,21 +2113,21 @@
       <c r="D49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="2">
         <v>4</v>
       </c>
-      <c r="F49" s="1" t="n">
+      <c r="F49" s="1">
         <v>165</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="2">
         <v>4.2</v>
       </c>
-      <c r="H49" s="1" t="n">
+      <c r="H49" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A50" s="1">
         <v>62135</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1861,21 +2139,21 @@
       <c r="D50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="2">
         <v>5</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F50" s="1">
         <v>180</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="2">
         <v>6</v>
       </c>
-      <c r="H50" s="1" t="n">
+      <c r="H50" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A51" s="1">
         <v>62136</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1887,21 +2165,21 @@
       <c r="D51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="2">
         <v>4.5</v>
       </c>
-      <c r="F51" s="1" t="n">
+      <c r="F51" s="1">
         <v>170</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="2">
         <v>6</v>
       </c>
-      <c r="H51" s="1" t="n">
+      <c r="H51" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A52" s="1">
         <v>62137</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1913,21 +2191,21 @@
       <c r="D52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="2">
         <v>2</v>
       </c>
-      <c r="F52" s="1" t="n">
+      <c r="F52" s="1">
         <v>180</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="2">
         <v>3</v>
       </c>
-      <c r="H52" s="1" t="n">
+      <c r="H52" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A53" s="1">
         <v>62138</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1939,21 +2217,21 @@
       <c r="D53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="2">
         <v>6</v>
       </c>
-      <c r="F53" s="1" t="n">
+      <c r="F53" s="1">
         <v>180</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="G53" s="2">
         <v>4.5</v>
       </c>
-      <c r="H53" s="1" t="n">
+      <c r="H53" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A54" s="1">
         <v>62139</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1965,21 +2243,21 @@
       <c r="D54" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="2">
         <v>5</v>
       </c>
-      <c r="F54" s="1" t="n">
+      <c r="F54" s="1">
         <v>155</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="G54" s="2">
         <v>2</v>
       </c>
-      <c r="H54" s="1" t="n">
+      <c r="H54" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A55" s="1">
         <v>62140</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1991,21 +2269,21 @@
       <c r="D55" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="2">
         <v>4.75</v>
       </c>
-      <c r="F55" s="1" t="n">
+      <c r="F55" s="1">
         <v>135</v>
       </c>
-      <c r="G55" s="2" t="n">
+      <c r="G55" s="2">
         <v>3.75</v>
       </c>
-      <c r="H55" s="1" t="n">
+      <c r="H55" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A56" s="1">
         <v>62141</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2017,21 +2295,21 @@
       <c r="D56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="2">
         <v>3</v>
       </c>
-      <c r="F56" s="1" t="n">
+      <c r="F56" s="1">
         <v>141</v>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="G56" s="2">
         <v>4.25</v>
       </c>
-      <c r="H56" s="1" t="n">
+      <c r="H56" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A57" s="1">
         <v>62142</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2043,21 +2321,21 @@
       <c r="D57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="2">
         <v>4.75</v>
       </c>
-      <c r="F57" s="1" t="n">
+      <c r="F57" s="1">
         <v>180</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="2">
         <v>3.75</v>
       </c>
-      <c r="H57" s="1" t="n">
+      <c r="H57" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A58" s="1">
         <v>62143</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2069,21 +2347,21 @@
       <c r="D58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="2">
         <v>4.75</v>
       </c>
-      <c r="F58" s="1" t="n">
+      <c r="F58" s="1">
         <v>150</v>
       </c>
-      <c r="G58" s="2" t="n">
+      <c r="G58" s="2">
         <v>4.5</v>
       </c>
-      <c r="H58" s="1" t="n">
+      <c r="H58" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A59" s="1">
         <v>62144</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2095,21 +2373,21 @@
       <c r="D59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="2">
         <v>5</v>
       </c>
-      <c r="F59" s="1" t="n">
+      <c r="F59" s="1">
         <v>170</v>
       </c>
-      <c r="G59" s="2" t="n">
+      <c r="G59" s="2">
         <v>3.75</v>
       </c>
-      <c r="H59" s="1" t="n">
+      <c r="H59" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A60" s="1">
         <v>62145</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2121,21 +2399,21 @@
       <c r="D60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="2">
         <v>4.75</v>
       </c>
-      <c r="F60" s="1" t="n">
+      <c r="F60" s="1">
         <v>160</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="2">
         <v>6</v>
       </c>
-      <c r="H60" s="1" t="n">
+      <c r="H60" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A61" s="1">
         <v>62146</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2147,21 +2425,21 @@
       <c r="D61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="2">
         <v>4</v>
       </c>
-      <c r="F61" s="1" t="n">
+      <c r="F61" s="1">
         <v>180</v>
       </c>
-      <c r="G61" s="2" t="n">
+      <c r="G61" s="2">
         <v>5.5</v>
       </c>
-      <c r="H61" s="1" t="n">
+      <c r="H61" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A62" s="1">
         <v>62147</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2173,21 +2451,21 @@
       <c r="D62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="2">
         <v>5</v>
       </c>
-      <c r="F62" s="1" t="n">
+      <c r="F62" s="1">
         <v>175</v>
       </c>
-      <c r="G62" s="2" t="n">
+      <c r="G62" s="2">
         <v>5.5</v>
       </c>
-      <c r="H62" s="1" t="n">
+      <c r="H62" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A63" s="1">
         <v>62148</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2199,21 +2477,21 @@
       <c r="D63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="2">
         <v>5</v>
       </c>
-      <c r="F63" s="1" t="n">
+      <c r="F63" s="1">
         <v>180</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="2">
         <v>3.75</v>
       </c>
-      <c r="H63" s="1" t="n">
+      <c r="H63" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A64" s="1">
         <v>62149</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2225,21 +2503,21 @@
       <c r="D64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="2">
         <v>3.75</v>
       </c>
-      <c r="F64" s="1" t="n">
+      <c r="F64" s="1">
         <v>145</v>
       </c>
-      <c r="G64" s="2" t="n">
+      <c r="G64" s="2">
         <v>3.75</v>
       </c>
-      <c r="H64" s="1" t="n">
+      <c r="H64" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A65" s="1">
         <v>62150</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2251,21 +2529,21 @@
       <c r="D65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="E65" s="2">
         <v>3.75</v>
       </c>
-      <c r="F65" s="1" t="n">
+      <c r="F65" s="1">
         <v>80</v>
       </c>
-      <c r="G65" s="2" t="n">
+      <c r="G65" s="2">
         <v>3.75</v>
       </c>
-      <c r="H65" s="1" t="n">
+      <c r="H65" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A66" s="1">
         <v>62151</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2277,21 +2555,21 @@
       <c r="D66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="2">
         <v>5</v>
       </c>
-      <c r="F66" s="1" t="n">
+      <c r="F66" s="1">
         <v>180</v>
       </c>
-      <c r="G66" s="2" t="n">
+      <c r="G66" s="2">
         <v>4.5</v>
       </c>
-      <c r="H66" s="1" t="n">
+      <c r="H66" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A67" s="1">
         <v>62152</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2303,21 +2581,21 @@
       <c r="D67" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="2">
         <v>5</v>
       </c>
-      <c r="F67" s="1" t="n">
+      <c r="F67" s="1">
         <v>180</v>
       </c>
-      <c r="G67" s="2" t="n">
+      <c r="G67" s="2">
         <v>6</v>
       </c>
-      <c r="H67" s="1" t="n">
+      <c r="H67" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A68" s="1">
         <v>62153</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2329,21 +2607,21 @@
       <c r="D68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="2">
         <v>4</v>
       </c>
-      <c r="F68" s="1" t="n">
+      <c r="F68" s="1">
         <v>165</v>
       </c>
-      <c r="G68" s="2" t="n">
+      <c r="G68" s="2">
         <v>4.25</v>
       </c>
-      <c r="H68" s="1" t="n">
+      <c r="H68" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A69" s="1">
         <v>62154</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2355,18 +2633,19 @@
       <c r="D69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="2">
         <v>2</v>
       </c>
-      <c r="F69" s="1" t="n">
+      <c r="F69" s="1">
         <v>60</v>
       </c>
-      <c r="G69" s="2" t="n">
+      <c r="G69" s="2">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="H69"/>
+    </row>
+    <row r="70" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A70" s="1">
         <v>62155</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2378,21 +2657,21 @@
       <c r="D70" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="2">
         <v>5</v>
       </c>
-      <c r="F70" s="1" t="n">
+      <c r="F70" s="1">
         <v>180</v>
       </c>
-      <c r="G70" s="2" t="n">
+      <c r="G70" s="2">
         <v>3.75</v>
       </c>
-      <c r="H70" s="1" t="n">
+      <c r="H70" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A71" s="1">
         <v>62156</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2404,21 +2683,21 @@
       <c r="D71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="2" t="n">
+      <c r="E71" s="2">
         <v>5.5</v>
       </c>
-      <c r="F71" s="1" t="n">
+      <c r="F71" s="1">
         <v>180</v>
       </c>
-      <c r="G71" s="2" t="n">
+      <c r="G71" s="2">
         <v>4.4</v>
       </c>
-      <c r="H71" s="1" t="n">
+      <c r="H71" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A72" s="1">
         <v>62157</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2431,12 +2710,14 @@
         <v>21</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="1" t="n">
+      <c r="F72" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="G72" s="2"/>
+      <c r="H72"/>
+    </row>
+    <row r="73" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A73" s="1">
         <v>62158</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -2448,21 +2729,21 @@
       <c r="D73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E73" s="2" t="n">
+      <c r="E73" s="2">
         <v>5</v>
       </c>
-      <c r="F73" s="1" t="n">
+      <c r="F73" s="1">
         <v>160</v>
       </c>
-      <c r="G73" s="2" t="n">
+      <c r="G73" s="2">
         <v>6</v>
       </c>
-      <c r="H73" s="1" t="n">
+      <c r="H73" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A74" s="1">
         <v>62159</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -2474,21 +2755,21 @@
       <c r="D74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="2">
         <v>5.5</v>
       </c>
-      <c r="F74" s="1" t="n">
+      <c r="F74" s="1">
         <v>175</v>
       </c>
-      <c r="G74" s="2" t="n">
+      <c r="G74" s="2">
         <v>4.5</v>
       </c>
-      <c r="H74" s="1" t="n">
+      <c r="H74" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A75" s="1">
         <v>62160</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2500,21 +2781,21 @@
       <c r="D75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="2">
         <v>3.75</v>
       </c>
-      <c r="F75" s="1" t="n">
+      <c r="F75" s="1">
         <v>130</v>
       </c>
-      <c r="G75" s="2" t="n">
+      <c r="G75" s="2">
         <v>3</v>
       </c>
-      <c r="H75" s="1" t="n">
+      <c r="H75" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A76" s="1">
         <v>62161</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2527,9 +2808,12 @@
         <v>32</v>
       </c>
       <c r="E76" s="2"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="F76" s="1"/>
+      <c r="G76" s="2"/>
+      <c r="H76"/>
+    </row>
+    <row r="77" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A77" s="1">
         <v>62162</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2541,21 +2825,21 @@
       <c r="D77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="2">
         <v>5.75</v>
       </c>
-      <c r="F77" s="1" t="n">
+      <c r="F77" s="1">
         <v>180</v>
       </c>
-      <c r="G77" s="2" t="n">
+      <c r="G77" s="2">
         <v>3.75</v>
       </c>
-      <c r="H77" s="1" t="n">
+      <c r="H77" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A78" s="1">
         <v>62163</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -2567,21 +2851,21 @@
       <c r="D78" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="2">
         <v>4.75</v>
       </c>
-      <c r="F78" s="1" t="n">
+      <c r="F78" s="1">
         <v>175</v>
       </c>
-      <c r="G78" s="2" t="n">
+      <c r="G78" s="2">
         <v>4.5</v>
       </c>
-      <c r="H78" s="1" t="n">
+      <c r="H78" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A79" s="1">
         <v>62164</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -2594,12 +2878,14 @@
         <v>19</v>
       </c>
       <c r="E79" s="2"/>
-      <c r="H79" s="1" t="n">
+      <c r="F79" s="1"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A80" s="1">
         <v>62165</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2611,21 +2897,21 @@
       <c r="D80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="2">
         <v>2</v>
       </c>
-      <c r="F80" s="1" t="n">
+      <c r="F80" s="1">
         <v>160</v>
       </c>
-      <c r="G80" s="2" t="n">
+      <c r="G80" s="2">
         <v>2</v>
       </c>
-      <c r="H80" s="1" t="n">
+      <c r="H80" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A81" s="1">
         <v>62166</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -2637,21 +2923,21 @@
       <c r="D81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="2">
         <v>4</v>
       </c>
-      <c r="F81" s="1" t="n">
+      <c r="F81" s="1">
         <v>70</v>
       </c>
-      <c r="G81" s="2" t="n">
+      <c r="G81" s="2">
         <v>3.75</v>
       </c>
-      <c r="H81" s="1" t="n">
+      <c r="H81" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A82" s="1">
         <v>62167</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -2663,21 +2949,21 @@
       <c r="D82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="2">
         <v>4.75</v>
       </c>
-      <c r="F82" s="1" t="n">
+      <c r="F82" s="1">
         <v>170</v>
       </c>
-      <c r="G82" s="2" t="n">
+      <c r="G82" s="2">
         <v>5</v>
       </c>
-      <c r="H82" s="1" t="n">
+      <c r="H82" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A83" s="1">
         <v>62168</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -2689,21 +2975,21 @@
       <c r="D83" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="2">
         <v>5</v>
       </c>
-      <c r="F83" s="1" t="n">
+      <c r="F83" s="1">
         <v>180</v>
       </c>
-      <c r="G83" s="2" t="n">
+      <c r="G83" s="2">
         <v>4.5</v>
       </c>
-      <c r="H83" s="1" t="n">
+      <c r="H83" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A84" s="1">
         <v>62169</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2715,21 +3001,21 @@
       <c r="D84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="2">
         <v>4</v>
       </c>
-      <c r="F84" s="1" t="n">
+      <c r="F84" s="1">
         <v>140</v>
       </c>
-      <c r="G84" s="2" t="n">
+      <c r="G84" s="2">
         <v>4.75</v>
       </c>
-      <c r="H84" s="1" t="n">
+      <c r="H84" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A85" s="1">
         <v>62170</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -2741,18 +3027,19 @@
       <c r="D85" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="2">
         <v>2</v>
       </c>
-      <c r="F85" s="1" t="n">
+      <c r="F85" s="1">
         <v>150</v>
       </c>
-      <c r="G85" s="2" t="n">
+      <c r="G85" s="2">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="H85"/>
+    </row>
+    <row r="86" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A86" s="1">
         <v>62171</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -2764,21 +3051,21 @@
       <c r="D86" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="2">
         <v>4.5</v>
       </c>
-      <c r="F86" s="1" t="n">
+      <c r="F86" s="1">
         <v>140</v>
       </c>
-      <c r="G86" s="2" t="n">
+      <c r="G86" s="2">
         <v>4.25</v>
       </c>
-      <c r="H86" s="1" t="n">
+      <c r="H86" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A87" s="1">
         <v>62172</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2790,21 +3077,21 @@
       <c r="D87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E87" s="2" t="n">
+      <c r="E87" s="2">
         <v>5</v>
       </c>
-      <c r="F87" s="1" t="n">
+      <c r="F87" s="1">
         <v>160</v>
       </c>
-      <c r="G87" s="2" t="n">
+      <c r="G87" s="2">
         <v>5.75</v>
       </c>
-      <c r="H87" s="1" t="n">
+      <c r="H87" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A88" s="1">
         <v>62173</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -2816,21 +3103,21 @@
       <c r="D88" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E88" s="2" t="n">
+      <c r="E88" s="2">
         <v>6</v>
       </c>
-      <c r="F88" s="1" t="n">
+      <c r="F88" s="1">
         <v>180</v>
       </c>
-      <c r="G88" s="2" t="n">
+      <c r="G88" s="2">
         <v>6</v>
       </c>
-      <c r="H88" s="1" t="n">
+      <c r="H88" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A89" s="1">
         <v>62174</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -2842,21 +3129,21 @@
       <c r="D89" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="2" t="n">
+      <c r="E89" s="2">
         <v>4.5</v>
       </c>
-      <c r="F89" s="1" t="n">
+      <c r="F89" s="1">
         <v>100</v>
       </c>
-      <c r="G89" s="2" t="n">
+      <c r="G89" s="2">
         <v>3.25</v>
       </c>
-      <c r="H89" s="1" t="n">
+      <c r="H89" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A90" s="1">
         <v>62175</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -2868,15 +3155,17 @@
       <c r="D90" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E90" s="2" t="n">
+      <c r="E90" s="2">
         <v>4.5</v>
       </c>
-      <c r="G90" s="2" t="n">
+      <c r="F90" s="1"/>
+      <c r="G90" s="2">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="H90"/>
+    </row>
+    <row r="91" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A91" s="1">
         <v>62176</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -2888,18 +3177,19 @@
       <c r="D91" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="2" t="n">
+      <c r="E91" s="2">
         <v>4</v>
       </c>
-      <c r="F91" s="1" t="n">
+      <c r="F91" s="1">
         <v>150</v>
       </c>
-      <c r="G91" s="2" t="n">
+      <c r="G91" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="H91"/>
+    </row>
+    <row r="92" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A92" s="1">
         <v>62177</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -2911,21 +3201,21 @@
       <c r="D92" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E92" s="2" t="n">
+      <c r="E92" s="2">
         <v>5</v>
       </c>
-      <c r="F92" s="1" t="n">
+      <c r="F92" s="1">
         <v>145</v>
       </c>
-      <c r="G92" s="2" t="n">
+      <c r="G92" s="2">
         <v>4</v>
       </c>
-      <c r="H92" s="1" t="n">
+      <c r="H92" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A93" s="1">
         <v>62178</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -2937,21 +3227,21 @@
       <c r="D93" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="2" t="n">
+      <c r="E93" s="2">
         <v>3.5</v>
       </c>
-      <c r="F93" s="1" t="n">
+      <c r="F93" s="1">
         <v>145</v>
       </c>
-      <c r="G93" s="2" t="n">
+      <c r="G93" s="2">
         <v>4</v>
       </c>
-      <c r="H93" s="1" t="n">
+      <c r="H93" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A94" s="1">
         <v>62179</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -2963,21 +3253,21 @@
       <c r="D94" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E94" s="2" t="n">
+      <c r="E94" s="2">
         <v>4.25</v>
       </c>
-      <c r="F94" s="1" t="n">
+      <c r="F94" s="1">
         <v>150</v>
       </c>
-      <c r="G94" s="2" t="n">
+      <c r="G94" s="2">
         <v>3.75</v>
       </c>
-      <c r="H94" s="1" t="n">
+      <c r="H94" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A95" s="1">
         <v>62180</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -2989,21 +3279,21 @@
       <c r="D95" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="E95" s="2">
         <v>5.5</v>
       </c>
-      <c r="F95" s="1" t="n">
+      <c r="F95" s="1">
         <v>180</v>
       </c>
-      <c r="G95" s="2" t="n">
+      <c r="G95" s="2">
         <v>5.75</v>
       </c>
-      <c r="H95" s="1" t="n">
+      <c r="H95" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A96" s="1">
         <v>62181</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -3015,21 +3305,21 @@
       <c r="D96" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="2" t="n">
+      <c r="E96" s="2">
         <v>4.5</v>
       </c>
-      <c r="F96" s="1" t="n">
+      <c r="F96" s="1">
         <v>175</v>
       </c>
-      <c r="G96" s="2" t="n">
+      <c r="G96" s="2">
         <v>4.25</v>
       </c>
-      <c r="H96" s="1" t="n">
+      <c r="H96" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A97" s="1">
         <v>62182</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -3041,21 +3331,21 @@
       <c r="D97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E97" s="2" t="n">
+      <c r="E97" s="2">
         <v>4.75</v>
       </c>
-      <c r="F97" s="1" t="n">
+      <c r="F97" s="1">
         <v>180</v>
       </c>
-      <c r="G97" s="2" t="n">
+      <c r="G97" s="2">
         <v>2</v>
       </c>
-      <c r="H97" s="1" t="n">
+      <c r="H97" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A98" s="1">
         <v>62183</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -3067,21 +3357,21 @@
       <c r="D98" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E98" s="2" t="n">
+      <c r="E98" s="2">
         <v>3.5</v>
       </c>
-      <c r="F98" s="1" t="n">
+      <c r="F98" s="1">
         <v>165</v>
       </c>
-      <c r="G98" s="2" t="n">
+      <c r="G98" s="2">
         <v>4.75</v>
       </c>
-      <c r="H98" s="1" t="n">
+      <c r="H98" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A99" s="1">
         <v>62184</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -3093,21 +3383,21 @@
       <c r="D99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E99" s="2" t="n">
+      <c r="E99" s="2">
         <v>4.5</v>
       </c>
-      <c r="F99" s="1" t="n">
+      <c r="F99" s="1">
         <v>180</v>
       </c>
-      <c r="G99" s="2" t="n">
+      <c r="G99" s="2">
         <v>4.5</v>
       </c>
-      <c r="H99" s="1" t="n">
+      <c r="H99" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A100" s="1">
         <v>62185</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -3119,21 +3409,21 @@
       <c r="D100" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E100" s="2" t="n">
+      <c r="E100" s="2">
         <v>4.75</v>
       </c>
-      <c r="F100" s="1" t="n">
+      <c r="F100" s="1">
         <v>150</v>
       </c>
-      <c r="G100" s="2" t="n">
+      <c r="G100" s="2">
         <v>3</v>
       </c>
-      <c r="H100" s="1" t="n">
+      <c r="H100" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A101" s="1">
         <v>62186</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -3145,21 +3435,21 @@
       <c r="D101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E101" s="2" t="n">
+      <c r="E101" s="2">
         <v>5</v>
       </c>
-      <c r="F101" s="1" t="n">
+      <c r="F101" s="1">
         <v>180</v>
       </c>
-      <c r="G101" s="2" t="n">
+      <c r="G101" s="2">
         <v>3.4</v>
       </c>
-      <c r="H101" s="1" t="n">
+      <c r="H101" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A102" s="1">
         <v>62187</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -3171,21 +3461,21 @@
       <c r="D102" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E102" s="2" t="n">
+      <c r="E102" s="2">
         <v>3</v>
       </c>
-      <c r="F102" s="1" t="n">
+      <c r="F102" s="1">
         <v>170</v>
       </c>
-      <c r="G102" s="2" t="n">
+      <c r="G102" s="2">
         <v>4.5</v>
       </c>
-      <c r="H102" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="H102" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A103" s="1">
         <v>62188</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -3197,21 +3487,21 @@
       <c r="D103" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E103" s="2" t="n">
+      <c r="E103" s="2">
         <v>3.25</v>
       </c>
-      <c r="F103" s="1" t="n">
+      <c r="F103" s="1">
         <v>155</v>
       </c>
-      <c r="G103" s="2" t="n">
+      <c r="G103" s="2">
         <v>3</v>
       </c>
-      <c r="H103" s="1" t="n">
+      <c r="H103" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A104" s="1">
         <v>62189</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -3223,21 +3513,21 @@
       <c r="D104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E104" s="2" t="n">
+      <c r="E104" s="2">
         <v>5</v>
       </c>
-      <c r="F104" s="1" t="n">
+      <c r="F104" s="1">
         <v>180</v>
       </c>
-      <c r="G104" s="2" t="n">
+      <c r="G104" s="2">
         <v>5.5</v>
       </c>
-      <c r="H104" s="1" t="n">
+      <c r="H104" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A105" s="1">
         <v>62190</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -3249,21 +3539,21 @@
       <c r="D105" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E105" s="2" t="n">
+      <c r="E105" s="2">
         <v>4.5</v>
       </c>
-      <c r="F105" s="1" t="n">
+      <c r="F105" s="1">
         <v>150</v>
       </c>
-      <c r="G105" s="2" t="n">
+      <c r="G105" s="2">
         <v>3</v>
       </c>
-      <c r="H105" s="1" t="n">
+      <c r="H105" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A106" s="1">
         <v>62191</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -3275,21 +3565,21 @@
       <c r="D106" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E106" s="2" t="n">
+      <c r="E106" s="2">
         <v>4.5</v>
       </c>
-      <c r="F106" s="1" t="n">
+      <c r="F106" s="1">
         <v>145</v>
       </c>
-      <c r="G106" s="2" t="n">
+      <c r="G106" s="2">
         <v>4.5</v>
       </c>
-      <c r="H106" s="1" t="n">
+      <c r="H106" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A107" s="1">
         <v>62192</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -3302,9 +3592,12 @@
         <v>16</v>
       </c>
       <c r="E107" s="2"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="F107" s="1"/>
+      <c r="G107" s="2"/>
+      <c r="H107"/>
+    </row>
+    <row r="108" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A108" s="1">
         <v>62193</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -3316,21 +3609,21 @@
       <c r="D108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E108" s="2" t="n">
+      <c r="E108" s="2">
         <v>5</v>
       </c>
-      <c r="F108" s="1" t="n">
+      <c r="F108" s="1">
         <v>150</v>
       </c>
-      <c r="G108" s="2" t="n">
+      <c r="G108" s="2">
         <v>4.5</v>
       </c>
-      <c r="H108" s="1" t="n">
+      <c r="H108" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A109" s="1">
         <v>62194</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -3342,21 +3635,21 @@
       <c r="D109" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E109" s="2" t="n">
+      <c r="E109" s="2">
         <v>4.75</v>
       </c>
-      <c r="F109" s="1" t="n">
+      <c r="F109" s="1">
         <v>170</v>
       </c>
-      <c r="G109" s="2" t="n">
+      <c r="G109" s="2">
         <v>4.5</v>
       </c>
-      <c r="H109" s="1" t="n">
+      <c r="H109" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A110" s="1">
         <v>62195</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -3368,21 +3661,21 @@
       <c r="D110" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E110" s="2" t="n">
+      <c r="E110" s="2">
         <v>4.25</v>
       </c>
-      <c r="F110" s="1" t="n">
+      <c r="F110" s="1">
         <v>180</v>
       </c>
-      <c r="G110" s="2" t="n">
+      <c r="G110" s="2">
         <v>4.25</v>
       </c>
-      <c r="H110" s="1" t="n">
+      <c r="H110" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A111" s="1">
         <v>62196</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -3394,21 +3687,21 @@
       <c r="D111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E111" s="2" t="n">
+      <c r="E111" s="2">
         <v>5</v>
       </c>
-      <c r="F111" s="1" t="n">
+      <c r="F111" s="1">
         <v>175</v>
       </c>
-      <c r="G111" s="2" t="n">
+      <c r="G111" s="2">
         <v>4.75</v>
       </c>
-      <c r="H111" s="1" t="n">
+      <c r="H111" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A112" s="1">
         <v>62197</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -3420,21 +3713,21 @@
       <c r="D112" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E112" s="2" t="n">
+      <c r="E112" s="2">
         <v>5</v>
       </c>
-      <c r="F112" s="1" t="n">
+      <c r="F112" s="1">
         <v>150</v>
       </c>
-      <c r="G112" s="2" t="n">
+      <c r="G112" s="2">
         <v>4.5</v>
       </c>
-      <c r="H112" s="1" t="n">
+      <c r="H112" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A113" s="1">
         <v>62198</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -3446,21 +3739,21 @@
       <c r="D113" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E113" s="2" t="n">
+      <c r="E113" s="2">
         <v>5</v>
       </c>
-      <c r="F113" s="1" t="n">
+      <c r="F113" s="1">
         <v>160</v>
       </c>
-      <c r="G113" s="2" t="n">
+      <c r="G113" s="2">
         <v>5</v>
       </c>
-      <c r="H113" s="1" t="n">
+      <c r="H113" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A114" s="1">
         <v>62199</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -3472,21 +3765,21 @@
       <c r="D114" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="2" t="n">
+      <c r="E114" s="2">
         <v>4.5</v>
       </c>
-      <c r="F114" s="1" t="n">
+      <c r="F114" s="1">
         <v>175</v>
       </c>
-      <c r="G114" s="2" t="n">
+      <c r="G114" s="2">
         <v>4.5</v>
       </c>
-      <c r="H114" s="1" t="n">
+      <c r="H114" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A115" s="1">
         <v>62200</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -3498,21 +3791,21 @@
       <c r="D115" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="E115" s="2">
         <v>5.5</v>
       </c>
-      <c r="F115" s="1" t="n">
+      <c r="F115" s="1">
         <v>160</v>
       </c>
-      <c r="G115" s="2" t="n">
+      <c r="G115" s="2">
         <v>6</v>
       </c>
-      <c r="H115" s="1" t="n">
+      <c r="H115" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A116" s="1">
         <v>62201</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -3524,21 +3817,21 @@
       <c r="D116" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E116" s="2" t="n">
+      <c r="E116" s="2">
         <v>5</v>
       </c>
-      <c r="F116" s="1" t="n">
+      <c r="F116" s="1">
         <v>180</v>
       </c>
-      <c r="G116" s="2" t="n">
+      <c r="G116" s="2">
         <v>5.5</v>
       </c>
-      <c r="H116" s="1" t="n">
+      <c r="H116" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A117" s="1">
         <v>62202</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -3550,21 +3843,21 @@
       <c r="D117" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E117" s="2" t="n">
+      <c r="E117" s="2">
         <v>5</v>
       </c>
-      <c r="F117" s="1" t="n">
+      <c r="F117" s="1">
         <v>180</v>
       </c>
-      <c r="G117" s="2" t="n">
+      <c r="G117" s="2">
         <v>4.5</v>
       </c>
-      <c r="H117" s="1" t="n">
+      <c r="H117" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A118" s="1">
         <v>62203</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -3576,21 +3869,21 @@
       <c r="D118" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E118" s="2" t="n">
+      <c r="E118" s="2">
         <v>4.5</v>
       </c>
-      <c r="F118" s="1" t="n">
+      <c r="F118" s="1">
         <v>105</v>
       </c>
-      <c r="G118" s="2" t="n">
+      <c r="G118" s="2">
         <v>4.5</v>
       </c>
-      <c r="H118" s="1" t="n">
+      <c r="H118" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A119" s="1">
         <v>62204</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -3602,21 +3895,21 @@
       <c r="D119" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E119" s="2" t="n">
+      <c r="E119" s="2">
         <v>4.5</v>
       </c>
-      <c r="F119" s="1" t="n">
+      <c r="F119" s="1">
         <v>130</v>
       </c>
-      <c r="G119" s="2" t="n">
+      <c r="G119" s="2">
         <v>4.5</v>
       </c>
-      <c r="H119" s="1" t="n">
+      <c r="H119" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A120" s="1">
         <v>62205</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -3629,9 +3922,12 @@
         <v>34</v>
       </c>
       <c r="E120" s="2"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="F120" s="1"/>
+      <c r="G120" s="2"/>
+      <c r="H120"/>
+    </row>
+    <row r="121" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A121" s="1">
         <v>62206</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -3643,21 +3939,21 @@
       <c r="D121" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E121" s="2" t="n">
+      <c r="E121" s="2">
         <v>5.5</v>
       </c>
-      <c r="F121" s="1" t="n">
+      <c r="F121" s="1">
         <v>170</v>
       </c>
-      <c r="G121" s="2" t="n">
+      <c r="G121" s="2">
         <v>5.75</v>
       </c>
-      <c r="H121" s="1" t="n">
+      <c r="H121" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A122" s="1">
         <v>62207</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -3669,21 +3965,21 @@
       <c r="D122" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E122" s="2" t="n">
+      <c r="E122" s="2">
         <v>2</v>
       </c>
-      <c r="F122" s="1" t="n">
+      <c r="F122" s="1">
         <v>180</v>
       </c>
-      <c r="G122" s="2" t="n">
+      <c r="G122" s="2">
         <v>4.5</v>
       </c>
-      <c r="H122" s="1" t="n">
+      <c r="H122" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A123" s="1">
         <v>62208</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -3695,21 +3991,21 @@
       <c r="D123" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E123" s="2" t="n">
+      <c r="E123" s="2">
         <v>5</v>
       </c>
-      <c r="F123" s="1" t="n">
+      <c r="F123" s="1">
         <v>175</v>
       </c>
-      <c r="G123" s="2" t="n">
+      <c r="G123" s="2">
         <v>4.5</v>
       </c>
-      <c r="H123" s="1" t="n">
+      <c r="H123" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A124" s="1">
         <v>62209</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -3721,21 +4017,21 @@
       <c r="D124" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E124" s="2" t="n">
+      <c r="E124" s="2">
         <v>5</v>
       </c>
-      <c r="F124" s="1" t="n">
+      <c r="F124" s="1">
         <v>155</v>
       </c>
-      <c r="G124" s="2" t="n">
+      <c r="G124" s="2">
         <v>4.75</v>
       </c>
-      <c r="H124" s="1" t="n">
+      <c r="H124" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A125" s="1">
         <v>62210</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -3747,21 +4043,21 @@
       <c r="D125" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E125" s="2" t="n">
+      <c r="E125" s="2">
         <v>4.25</v>
       </c>
-      <c r="F125" s="1" t="n">
+      <c r="F125" s="1">
         <v>175</v>
       </c>
-      <c r="G125" s="2" t="n">
+      <c r="G125" s="2">
         <v>4.5</v>
       </c>
-      <c r="H125" s="1" t="n">
+      <c r="H125" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A126" s="1">
         <v>62211</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -3773,21 +4069,21 @@
       <c r="D126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E126" s="2" t="n">
+      <c r="E126" s="2">
         <v>4.25</v>
       </c>
-      <c r="F126" s="1" t="n">
+      <c r="F126" s="1">
         <v>90</v>
       </c>
-      <c r="G126" s="2" t="n">
+      <c r="G126" s="2">
         <v>4</v>
       </c>
-      <c r="H126" s="1" t="n">
+      <c r="H126" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A127" s="1">
         <v>62212</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -3799,21 +4095,21 @@
       <c r="D127" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E127" s="2" t="n">
+      <c r="E127" s="2">
         <v>3.25</v>
       </c>
-      <c r="F127" s="1" t="n">
+      <c r="F127" s="1">
         <v>155</v>
       </c>
-      <c r="G127" s="2" t="n">
+      <c r="G127" s="2">
         <v>3.75</v>
       </c>
-      <c r="H127" s="1" t="n">
+      <c r="H127" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A128" s="1">
         <v>62213</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -3825,21 +4121,21 @@
       <c r="D128" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E128" s="2" t="n">
+      <c r="E128" s="2">
         <v>3.5</v>
       </c>
-      <c r="F128" s="1" t="n">
+      <c r="F128" s="1">
         <v>165</v>
       </c>
-      <c r="G128" s="2" t="n">
+      <c r="G128" s="2">
         <v>2</v>
       </c>
-      <c r="H128" s="1" t="n">
+      <c r="H128" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A129" s="1">
         <v>62214</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -3851,21 +4147,21 @@
       <c r="D129" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E129" s="2" t="n">
+      <c r="E129" s="2">
         <v>2</v>
       </c>
-      <c r="F129" s="1" t="n">
+      <c r="F129" s="1">
         <v>165</v>
       </c>
-      <c r="G129" s="2" t="n">
+      <c r="G129" s="2">
         <v>3.75</v>
       </c>
-      <c r="H129" s="1" t="n">
+      <c r="H129" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A130" s="1">
         <v>62215</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -3877,21 +4173,21 @@
       <c r="D130" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E130" s="2" t="n">
+      <c r="E130" s="2">
         <v>4.5</v>
       </c>
-      <c r="F130" s="1" t="n">
+      <c r="F130" s="1">
         <v>160</v>
       </c>
-      <c r="G130" s="2" t="n">
+      <c r="G130" s="2">
         <v>3.75</v>
       </c>
-      <c r="H130" s="1" t="n">
+      <c r="H130" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A131" s="1">
         <v>62216</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -3903,15 +4199,17 @@
       <c r="D131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E131" s="2" t="n">
+      <c r="E131" s="2">
         <v>4.75</v>
       </c>
-      <c r="F131" s="1" t="n">
+      <c r="F131" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+      <c r="G131" s="2"/>
+      <c r="H131"/>
+    </row>
+    <row r="132" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A132" s="1">
         <v>62217</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -3923,18 +4221,19 @@
       <c r="D132" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E132" s="2" t="n">
+      <c r="E132" s="2">
         <v>4.25</v>
       </c>
-      <c r="G132" s="2" t="n">
+      <c r="F132" s="1"/>
+      <c r="G132" s="2">
         <v>4.25</v>
       </c>
-      <c r="H132" s="1" t="n">
+      <c r="H132" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A133" s="1">
         <v>62218</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -3946,15 +4245,17 @@
       <c r="D133" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E133" s="2" t="n">
+      <c r="E133" s="2">
         <v>4.5</v>
       </c>
-      <c r="G133" s="2" t="n">
+      <c r="F133" s="1"/>
+      <c r="G133" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="H133"/>
+    </row>
+    <row r="134" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A134" s="1">
         <v>62219</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -3966,21 +4267,21 @@
       <c r="D134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E134" s="2" t="n">
+      <c r="E134" s="2">
         <v>4.5</v>
       </c>
-      <c r="F134" s="1" t="n">
+      <c r="F134" s="1">
         <v>130</v>
       </c>
-      <c r="G134" s="2" t="n">
+      <c r="G134" s="2">
         <v>2</v>
       </c>
-      <c r="H134" s="1" t="n">
+      <c r="H134" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A135" s="1">
         <v>62220</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -3992,21 +4293,21 @@
       <c r="D135" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E135" s="2" t="n">
+      <c r="E135" s="2">
         <v>4.75</v>
       </c>
-      <c r="F135" s="1" t="n">
+      <c r="F135" s="1">
         <v>165</v>
       </c>
-      <c r="G135" s="2" t="n">
+      <c r="G135" s="2">
         <v>4.5</v>
       </c>
-      <c r="H135" s="1" t="n">
+      <c r="H135" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A136" s="1">
         <v>62221</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -4018,21 +4319,21 @@
       <c r="D136" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E136" s="2" t="n">
+      <c r="E136" s="2">
         <v>2</v>
       </c>
-      <c r="F136" s="1" t="n">
+      <c r="F136" s="1">
         <v>40</v>
       </c>
-      <c r="G136" s="2" t="n">
+      <c r="G136" s="2">
         <v>4.5</v>
       </c>
-      <c r="H136" s="1" t="n">
+      <c r="H136" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A137" s="1">
         <v>62222</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -4044,18 +4345,19 @@
       <c r="D137" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E137" s="2" t="n">
+      <c r="E137" s="2">
         <v>2</v>
       </c>
-      <c r="G137" s="2" t="n">
+      <c r="F137" s="1"/>
+      <c r="G137" s="2">
         <v>3</v>
       </c>
-      <c r="H137" s="1" t="n">
+      <c r="H137" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A138" s="1">
         <v>62223</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -4067,12 +4369,15 @@
       <c r="D138" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E138" s="2" t="n">
+      <c r="E138" s="2">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+      <c r="F138" s="1"/>
+      <c r="G138" s="2"/>
+      <c r="H138"/>
+    </row>
+    <row r="139" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A139" s="1">
         <v>62224</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -4084,21 +4389,21 @@
       <c r="D139" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E139" s="2" t="n">
+      <c r="E139" s="2">
         <v>5</v>
       </c>
-      <c r="F139" s="1" t="n">
+      <c r="F139" s="1">
         <v>180</v>
       </c>
-      <c r="G139" s="2" t="n">
+      <c r="G139" s="2">
         <v>4.25</v>
       </c>
-      <c r="H139" s="1" t="n">
+      <c r="H139" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A140" s="1">
         <v>62225</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -4110,21 +4415,21 @@
       <c r="D140" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E140" s="2" t="n">
+      <c r="E140" s="2">
         <v>4.25</v>
       </c>
-      <c r="F140" s="1" t="n">
+      <c r="F140" s="1">
         <v>145</v>
       </c>
-      <c r="G140" s="2" t="n">
+      <c r="G140" s="2">
         <v>4.25</v>
       </c>
-      <c r="H140" s="1" t="n">
+      <c r="H140" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A141" s="1">
         <v>62226</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -4136,21 +4441,21 @@
       <c r="D141" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E141" s="2" t="n">
+      <c r="E141" s="2">
         <v>4</v>
       </c>
-      <c r="F141" s="1" t="n">
+      <c r="F141" s="1">
         <v>130</v>
       </c>
-      <c r="G141" s="2" t="n">
+      <c r="G141" s="2">
         <v>3</v>
       </c>
-      <c r="H141" s="1" t="n">
+      <c r="H141" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A142" s="1">
         <v>62227</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -4162,15 +4467,17 @@
       <c r="D142" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E142" s="2" t="n">
+      <c r="E142" s="2">
         <v>3</v>
       </c>
-      <c r="F142" s="1" t="n">
+      <c r="F142" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+      <c r="G142" s="2"/>
+      <c r="H142"/>
+    </row>
+    <row r="143" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A143" s="1">
         <v>62228</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -4182,21 +4489,21 @@
       <c r="D143" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E143" s="2" t="n">
+      <c r="E143" s="2">
         <v>3.5</v>
       </c>
-      <c r="F143" s="1" t="n">
+      <c r="F143" s="1">
         <v>125</v>
       </c>
-      <c r="G143" s="2" t="n">
+      <c r="G143" s="2">
         <v>3.75</v>
       </c>
-      <c r="H143" s="1" t="n">
+      <c r="H143" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A144" s="1">
         <v>62229</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -4208,21 +4515,21 @@
       <c r="D144" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="2" t="n">
+      <c r="E144" s="2">
         <v>4</v>
       </c>
-      <c r="F144" s="1" t="n">
+      <c r="F144" s="1">
         <v>150</v>
       </c>
-      <c r="G144" s="2" t="n">
+      <c r="G144" s="2">
         <v>4.75</v>
       </c>
-      <c r="H144" s="1" t="n">
+      <c r="H144" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A145" s="1">
         <v>62230</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -4234,21 +4541,21 @@
       <c r="D145" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E145" s="2" t="n">
+      <c r="E145" s="2">
         <v>4</v>
       </c>
-      <c r="F145" s="1" t="n">
+      <c r="F145" s="1">
         <v>175</v>
       </c>
-      <c r="G145" s="2" t="n">
+      <c r="G145" s="2">
         <v>3.75</v>
       </c>
-      <c r="H145" s="1" t="n">
+      <c r="H145" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A146" s="1">
         <v>62231</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -4260,21 +4567,21 @@
       <c r="D146" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E146" s="2" t="n">
+      <c r="E146" s="2">
         <v>5</v>
       </c>
-      <c r="F146" s="1" t="n">
+      <c r="F146" s="1">
         <v>170</v>
       </c>
-      <c r="G146" s="2" t="n">
+      <c r="G146" s="2">
         <v>6</v>
       </c>
-      <c r="H146" s="1" t="n">
+      <c r="H146" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A147" s="1">
         <v>62232</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -4286,21 +4593,21 @@
       <c r="D147" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E147" s="2" t="n">
+      <c r="E147" s="2">
         <v>5</v>
       </c>
-      <c r="F147" s="1" t="n">
+      <c r="F147" s="1">
         <v>85</v>
       </c>
-      <c r="G147" s="2" t="n">
+      <c r="G147" s="2">
         <v>4.5</v>
       </c>
-      <c r="H147" s="1" t="n">
+      <c r="H147" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A148" s="1">
         <v>62233</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -4313,12 +4620,14 @@
         <v>19</v>
       </c>
       <c r="E148" s="2"/>
-      <c r="G148" s="2" t="n">
+      <c r="F148" s="1"/>
+      <c r="G148" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+      <c r="H148"/>
+    </row>
+    <row r="149" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A149" s="1">
         <v>62234</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -4330,21 +4639,21 @@
       <c r="D149" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E149" s="2" t="n">
+      <c r="E149" s="2">
         <v>5.5</v>
       </c>
-      <c r="F149" s="1" t="n">
+      <c r="F149" s="1">
         <v>170</v>
       </c>
-      <c r="G149" s="2" t="n">
+      <c r="G149" s="2">
         <v>4</v>
       </c>
-      <c r="H149" s="1" t="n">
+      <c r="H149" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A150" s="1">
         <v>62235</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -4357,15 +4666,16 @@
         <v>21</v>
       </c>
       <c r="E150" s="2"/>
-      <c r="G150" s="2" t="n">
+      <c r="F150" s="1"/>
+      <c r="G150" s="2">
         <v>3.75</v>
       </c>
-      <c r="H150" s="1" t="n">
+      <c r="H150" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A151" s="1">
         <v>62236</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -4377,21 +4687,21 @@
       <c r="D151" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E151" s="2" t="n">
+      <c r="E151" s="2">
         <v>4</v>
       </c>
-      <c r="F151" s="1" t="n">
+      <c r="F151" s="1">
         <v>155</v>
       </c>
-      <c r="G151" s="2" t="n">
+      <c r="G151" s="2">
         <v>4.25</v>
       </c>
-      <c r="H151" s="1" t="n">
+      <c r="H151" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A152" s="1">
         <v>62237</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -4403,15 +4713,17 @@
       <c r="D152" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E152" s="2" t="n">
+      <c r="E152" s="2">
         <v>5</v>
       </c>
-      <c r="G152" s="2" t="n">
+      <c r="F152" s="1"/>
+      <c r="G152" s="2">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+      <c r="H152"/>
+    </row>
+    <row r="153" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A153" s="1">
         <v>62238</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -4423,21 +4735,21 @@
       <c r="D153" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E153" s="2" t="n">
+      <c r="E153" s="2">
         <v>4.75</v>
       </c>
-      <c r="F153" s="1" t="n">
+      <c r="F153" s="1">
         <v>165</v>
       </c>
-      <c r="G153" s="2" t="n">
+      <c r="G153" s="2">
         <v>5</v>
       </c>
-      <c r="H153" s="1" t="n">
+      <c r="H153" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A154" s="1">
         <v>62239</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -4449,21 +4761,21 @@
       <c r="D154" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E154" s="2" t="n">
+      <c r="E154" s="2">
         <v>5</v>
       </c>
-      <c r="F154" s="1" t="n">
+      <c r="F154" s="1">
         <v>170</v>
       </c>
-      <c r="G154" s="2" t="n">
+      <c r="G154" s="2">
         <v>3</v>
       </c>
-      <c r="H154" s="1" t="n">
+      <c r="H154" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A155" s="1">
         <v>62240</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -4475,21 +4787,21 @@
       <c r="D155" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="2" t="n">
+      <c r="E155" s="2">
         <v>4.75</v>
       </c>
-      <c r="F155" s="1" t="n">
+      <c r="F155" s="1">
         <v>170</v>
       </c>
-      <c r="G155" s="2" t="n">
+      <c r="G155" s="2">
         <v>4.25</v>
       </c>
-      <c r="H155" s="1" t="n">
+      <c r="H155" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A156" s="1">
         <v>62241</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -4502,9 +4814,12 @@
         <v>32</v>
       </c>
       <c r="E156" s="2"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+      <c r="F156" s="1"/>
+      <c r="G156" s="2"/>
+      <c r="H156"/>
+    </row>
+    <row r="157" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A157" s="1">
         <v>62242</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -4517,9 +4832,12 @@
         <v>32</v>
       </c>
       <c r="E157" s="2"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+      <c r="F157" s="1"/>
+      <c r="G157" s="2"/>
+      <c r="H157"/>
+    </row>
+    <row r="158" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A158" s="1">
         <v>62258</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -4531,12 +4849,15 @@
       <c r="D158" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F158" s="1" t="n">
+      <c r="E158" s="1"/>
+      <c r="F158" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+      <c r="G158" s="2"/>
+      <c r="H158"/>
+    </row>
+    <row r="159" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A159" s="1">
         <v>855242</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -4549,9 +4870,12 @@
         <v>21</v>
       </c>
       <c r="E159" s="2"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+      <c r="F159" s="1"/>
+      <c r="G159" s="2"/>
+      <c r="H159"/>
+    </row>
+    <row r="160" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A160" s="1">
         <v>855283</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -4564,35 +4888,38 @@
         <v>32</v>
       </c>
       <c r="E160" s="2"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+      <c r="F160" s="1"/>
+      <c r="G160" s="2"/>
+      <c r="H160"/>
+    </row>
+    <row r="161" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A161" s="1">
         <v>855293</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C161" s="1" t="n">
+      <c r="C161" s="1">
         <v>2</v>
       </c>
-      <c r="D161" s="1" t="n">
+      <c r="D161" s="1">
         <v>1</v>
       </c>
-      <c r="E161" s="2" t="n">
+      <c r="E161" s="2">
         <v>2</v>
       </c>
-      <c r="F161" s="1" t="n">
+      <c r="F161" s="1">
         <v>115</v>
       </c>
-      <c r="G161" s="2" t="n">
+      <c r="G161" s="2">
         <v>2</v>
       </c>
-      <c r="H161" s="1" t="n">
+      <c r="H161" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A162" s="1">
         <v>855295</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -4604,21 +4931,21 @@
       <c r="D162" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E162" s="2" t="n">
+      <c r="E162" s="2">
         <v>3</v>
       </c>
-      <c r="F162" s="1" t="n">
+      <c r="F162" s="1">
         <v>150</v>
       </c>
-      <c r="G162" s="2" t="n">
+      <c r="G162" s="2">
         <v>4.5</v>
       </c>
-      <c r="H162" s="1" t="n">
+      <c r="H162" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A163" s="1">
         <v>855300</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -4630,18 +4957,19 @@
       <c r="D163" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E163" s="2" t="n">
+      <c r="E163" s="2">
         <v>2</v>
       </c>
-      <c r="F163" s="1" t="n">
+      <c r="F163" s="1">
         <v>145</v>
       </c>
-      <c r="G163" s="2" t="n">
+      <c r="G163" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+      <c r="H163"/>
+    </row>
+    <row r="164" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A164" s="1">
         <v>855301</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -4653,21 +4981,21 @@
       <c r="D164" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E164" s="2" t="n">
+      <c r="E164" s="2">
         <v>4.5</v>
       </c>
-      <c r="F164" s="1" t="n">
+      <c r="F164" s="1">
         <v>180</v>
       </c>
-      <c r="G164" s="2" t="n">
+      <c r="G164" s="2">
         <v>5.5</v>
       </c>
-      <c r="H164" s="1" t="n">
+      <c r="H164" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A165" s="1">
         <v>855302</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -4680,9 +5008,12 @@
         <v>19</v>
       </c>
       <c r="E165" s="2"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+      <c r="F165" s="1"/>
+      <c r="G165" s="2"/>
+      <c r="H165"/>
+    </row>
+    <row r="166" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A166" s="1">
         <v>855304</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -4694,21 +5025,21 @@
       <c r="D166" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E166" s="2" t="n">
+      <c r="E166" s="2">
         <v>2</v>
       </c>
-      <c r="F166" s="1" t="n">
+      <c r="F166" s="1">
         <v>150</v>
       </c>
-      <c r="G166" s="2" t="n">
+      <c r="G166" s="2">
         <v>3.5</v>
       </c>
-      <c r="H166" s="1" t="n">
+      <c r="H166" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A167" s="1">
         <v>855305</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -4720,21 +5051,21 @@
       <c r="D167" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E167" s="2" t="n">
+      <c r="E167" s="2">
         <v>2</v>
       </c>
-      <c r="F167" s="1" t="n">
+      <c r="F167" s="1">
         <v>140</v>
       </c>
-      <c r="G167" s="2" t="n">
+      <c r="G167" s="2">
         <v>4.5</v>
       </c>
-      <c r="H167" s="1" t="n">
+      <c r="H167" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A168" s="1">
         <v>855308</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -4746,21 +5077,21 @@
       <c r="D168" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E168" s="2" t="n">
+      <c r="E168" s="2">
         <v>2</v>
       </c>
-      <c r="F168" s="1" t="n">
+      <c r="F168" s="1">
         <v>150</v>
       </c>
-      <c r="G168" s="2" t="n">
+      <c r="G168" s="2">
         <v>2</v>
       </c>
-      <c r="H168" s="1" t="n">
+      <c r="H168" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A169" s="1">
         <v>855311</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -4773,9 +5104,12 @@
         <v>16</v>
       </c>
       <c r="E169" s="2"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+      <c r="F169" s="1"/>
+      <c r="G169" s="2"/>
+      <c r="H169"/>
+    </row>
+    <row r="170" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A170" s="1">
         <v>855313</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -4788,9 +5122,12 @@
         <v>34</v>
       </c>
       <c r="E170" s="2"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+      <c r="F170" s="1"/>
+      <c r="G170" s="2"/>
+      <c r="H170"/>
+    </row>
+    <row r="171" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A171" s="1">
         <v>855314</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -4803,9 +5140,12 @@
         <v>19</v>
       </c>
       <c r="E171" s="2"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+      <c r="F171" s="1"/>
+      <c r="G171" s="2"/>
+      <c r="H171"/>
+    </row>
+    <row r="172" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A172" s="1">
         <v>855315</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -4818,15 +5158,16 @@
         <v>19</v>
       </c>
       <c r="E172" s="2"/>
-      <c r="G172" s="2" t="n">
+      <c r="F172" s="1"/>
+      <c r="G172" s="2">
         <v>3.75</v>
       </c>
-      <c r="H172" s="0" t="n">
+      <c r="H172">
         <v>80</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A173" s="1">
         <v>855316</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -4839,9 +5180,12 @@
         <v>27</v>
       </c>
       <c r="E173" s="2"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+      <c r="F173" s="1"/>
+      <c r="G173" s="2"/>
+      <c r="H173"/>
+    </row>
+    <row r="174" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A174" s="1">
         <v>855317</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -4853,21 +5197,21 @@
       <c r="D174" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E174" s="2" t="n">
+      <c r="E174" s="2">
         <v>2</v>
       </c>
-      <c r="F174" s="1" t="n">
+      <c r="F174" s="1">
         <v>165</v>
       </c>
-      <c r="G174" s="2" t="n">
+      <c r="G174" s="2">
         <v>4</v>
       </c>
-      <c r="H174" s="1" t="n">
+      <c r="H174" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A175" s="1">
         <v>855318</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -4879,21 +5223,21 @@
       <c r="D175" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E175" s="2" t="n">
+      <c r="E175" s="2">
         <v>3</v>
       </c>
-      <c r="F175" s="1" t="n">
+      <c r="F175" s="1">
         <v>160</v>
       </c>
-      <c r="G175" s="2" t="n">
+      <c r="G175" s="2">
         <v>3</v>
       </c>
-      <c r="H175" s="1" t="n">
+      <c r="H175" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A176" s="1">
         <v>855319</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -4906,9 +5250,12 @@
         <v>19</v>
       </c>
       <c r="E176" s="2"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+      <c r="F176" s="1"/>
+      <c r="G176" s="2"/>
+      <c r="H176"/>
+    </row>
+    <row r="177" spans="1:8" customHeight="1" ht="12.75">
+      <c r="A177" s="1">
         <v>855322</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -4920,26 +5267,33 @@
       <c r="D177" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E177" s="2" t="n">
+      <c r="E177" s="2">
         <v>2</v>
       </c>
-      <c r="F177" s="1" t="n">
+      <c r="F177" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G177" s="2"/>
+      <c r="H177"/>
+    </row>
+    <row r="178" spans="1:8" customHeight="1" ht="12.75">
       <c r="E178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:8" customHeight="1" ht="12.75">
       <c r="E179" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.0527777777778" bottom="1.0527777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/users/root/uploads/test.xlsx
+++ b/users/root/uploads/test.xlsx
@@ -1108,7 +1108,7 @@
     </row>
     <row r="7" spans="1:8" customHeight="1" ht="12.75">
       <c r="A7" s="1">
-        <v>61993</v>
+        <v>619932</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>

--- a/users/root/uploads/test.xlsx
+++ b/users/root/uploads/test.xlsx
@@ -980,7 +980,7 @@
     </row>
     <row r="2" spans="1:8" customHeight="1" ht="12.75">
       <c r="A2" s="1">
-        <v>61639123</v>
+        <v>61639</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="3" spans="1:8" customHeight="1" ht="12.75">
       <c r="A3" s="1">
-        <v>61876</v>
+        <v>618763</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
